--- a/Input_EPC_Proposal.xlsx
+++ b/Input_EPC_Proposal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640"/>
   </bookViews>
   <sheets>
     <sheet name="Solar Park" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>S.No.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Ground Mounted Solar</t>
-  </si>
-  <si>
     <t>Customer Address</t>
   </si>
   <si>
@@ -57,18 +54,12 @@
     <t>Project Capacity</t>
   </si>
   <si>
-    <t>Fixed Tilt Structure</t>
-  </si>
-  <si>
     <t>Structure Type</t>
   </si>
   <si>
     <t>Project Type</t>
   </si>
   <si>
-    <t>EPC</t>
-  </si>
-  <si>
     <t>Village</t>
   </si>
   <si>
@@ -96,30 +87,18 @@
     <t>PV Module Details</t>
   </si>
   <si>
-    <t>Compliance of Scope Matrix, RFP and MOM on dated 11.07.2025 &amp; 08.08.2025</t>
-  </si>
-  <si>
     <t>Compliance of Scope Matrix</t>
   </si>
   <si>
-    <t>Al</t>
-  </si>
-  <si>
     <t>Winding Type</t>
   </si>
   <si>
-    <t>300 kW, 800V</t>
-  </si>
-  <si>
     <t>Inverter Ratings</t>
   </si>
   <si>
     <t>MMS Technology</t>
   </si>
   <si>
-    <t>Fixed Tilt MMS</t>
-  </si>
-  <si>
     <t>Completion Month</t>
   </si>
   <si>
@@ -141,78 +120,33 @@
     <t>Drainage</t>
   </si>
   <si>
-    <t>1530 Mtr.</t>
-  </si>
-  <si>
-    <t>2830 Mtr.</t>
-  </si>
-  <si>
-    <t>2100 Mtr.</t>
-  </si>
-  <si>
-    <t>7000 Mtr.</t>
-  </si>
-  <si>
-    <t>The plant consists of one block each of 10 MW, 8 MW, and 7 MW, along with four blocks of 5 MW each.</t>
-  </si>
-  <si>
     <t>Block Size</t>
   </si>
   <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>M/S Bright Night</t>
-  </si>
-  <si>
-    <t>20MT/SQ.M</t>
-  </si>
-  <si>
     <t>Soil Bearing Capacity</t>
   </si>
   <si>
-    <t>100 ohm Mtr</t>
-  </si>
-  <si>
     <t>Earth resistivity</t>
   </si>
   <si>
     <t>Thermal resistivity</t>
   </si>
   <si>
-    <t>150-degree C cm/W</t>
-  </si>
-  <si>
-    <t>25 KVA</t>
-  </si>
-  <si>
     <t>Auxiliary Transformer</t>
   </si>
   <si>
     <t>Acre</t>
   </si>
   <si>
-    <t>226 acre</t>
-  </si>
-  <si>
     <t>Price/MWp</t>
   </si>
   <si>
     <t>Total Price</t>
   </si>
   <si>
-    <t>Dharashiv</t>
-  </si>
-  <si>
-    <t>45 MW (AC)/65.25 MWp (DC)</t>
-  </si>
-  <si>
-    <t>Shri. Manvendra Singh</t>
-  </si>
-  <si>
-    <t>Bright Night</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -462,56 +396,16 @@
     <t>193 MWp</t>
   </si>
   <si>
-    <t>manvendra@brightnightpower.com</t>
-  </si>
-  <si>
-    <t>78278-57291</t>
-  </si>
-  <si>
-    <t>Unit 4A, 2nd Floor, 
-Infinity Tower-A, 
-DLF Cyber City, 
-Gurugram-122002, India</t>
-  </si>
-  <si>
-    <t>Village: Kadora &amp; Peth Sangavi, Dharashiv,
-Maharashtra</t>
-  </si>
-  <si>
-    <t>33KV</t>
-  </si>
-  <si>
-    <t>17.935967’</t>
-  </si>
-  <si>
-    <t>76.527622’</t>
-  </si>
-  <si>
-    <t>Phase-1 = 45 MW &amp; 65.25 MWp</t>
-  </si>
-  <si>
     <t>Client Contact No</t>
   </si>
   <si>
     <t>Rev No</t>
   </si>
   <si>
-    <t>R0</t>
-  </si>
-  <si>
     <t>Offer No</t>
   </si>
   <si>
     <t>FY</t>
-  </si>
-  <si>
-    <t>2025-26</t>
-  </si>
-  <si>
-    <t>1,23,50,000</t>
-  </si>
-  <si>
-    <t>17,90,75,000</t>
   </si>
 </sst>
 </file>
@@ -909,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,9 +833,7 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -950,11 +842,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -962,23 +852,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>146</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -986,11 +872,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -999,11 +883,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1012,11 +894,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1025,11 +905,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>154</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1038,11 +916,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="9">
-        <v>17</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1051,11 +927,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>157</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1064,11 +938,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>58</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
@@ -1076,11 +948,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -1088,11 +958,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -1100,11 +968,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
@@ -1114,21 +980,17 @@
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>147</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
@@ -1136,11 +998,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>148</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -1148,11 +1008,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>149</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
@@ -1160,11 +1018,9 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>150</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
@@ -1172,23 +1028,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -1196,11 +1048,9 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -1208,11 +1058,9 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -1220,11 +1068,9 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
@@ -1232,11 +1078,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
@@ -1244,11 +1088,9 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
@@ -1256,11 +1098,9 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
@@ -1268,11 +1108,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
@@ -1280,23 +1118,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -1304,11 +1138,9 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
@@ -1316,11 +1148,9 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
@@ -1328,11 +1158,9 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
@@ -1340,11 +1168,9 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
@@ -1352,11 +1178,9 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
@@ -1364,11 +1188,9 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>158</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
@@ -1376,11 +1198,9 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>159</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
@@ -1388,10 +1208,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1400,22 +1220,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1424,11 +1244,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LEFT($C$12,3)</f>
-        <v xml:space="preserve">45 </v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1437,11 +1257,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="9" t="str">
+        <v>25</v>
+      </c>
+      <c r="C43" s="9" t="e">
         <f>TRIM(MID(C12,FIND("/",C12)+1,FIND("MWp",C12)-FIND("/",C12)-1))</f>
-        <v>65.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1450,11 +1270,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>UPPER($C$13)</f>
-        <v>DHARASHIV</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1463,11 +1283,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>UPPER($C$3)</f>
-        <v>MAHARASHTRA</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1476,11 +1296,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="9" t="str">
+        <v>39</v>
+      </c>
+      <c r="C46" s="9" t="e">
         <f>VLOOKUP($C$3,State!$B$4:$C$39,2,0)</f>
-        <v>MH</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1489,14 +1309,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>UPPER($C$14)</f>
-        <v>FIXED TILT STRUCTURE</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="9"/>
@@ -1565,298 +1385,298 @@
   <sheetData>
     <row r="3" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Input_EPC_Proposal.xlsx
+++ b/Input_EPC_Proposal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selva.ram\Desktop\Selva ram\Business Proposal Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selva ram\Business Proposal Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -801,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" s="9"/>
     </row>
@@ -978,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9"/>
     </row>
@@ -988,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9"/>
     </row>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9"/>
     </row>
@@ -1008,7 +1008,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -1018,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -1028,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="9"/>
     </row>
@@ -1048,7 +1048,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -1058,7 +1058,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -1068,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -1078,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
     </row>
@@ -1088,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="9"/>
     </row>
@@ -1098,7 +1098,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="9"/>
     </row>
@@ -1108,7 +1108,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9"/>
     </row>
@@ -1118,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="9"/>
     </row>
@@ -1128,7 +1128,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9"/>
     </row>
@@ -1138,7 +1138,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9"/>
     </row>
@@ -1148,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9"/>
     </row>
@@ -1158,7 +1158,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="9"/>
     </row>
@@ -1168,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9"/>
     </row>
@@ -1178,9 +1178,9 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
@@ -1188,7 +1188,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="16"/>
     </row>
@@ -1198,9 +1198,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="16"/>
+        <v>116</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
@@ -1208,10 +1210,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1220,22 +1222,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f>LEFT($C$12,3)</f>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1244,11 +1247,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>LEFT($C$12,3)</f>
-        <v/>
+        <v>25</v>
+      </c>
+      <c r="C42" s="9" t="e">
+        <f>TRIM(MID(C12,FIND("/",C12)+1,FIND("MWp",C12)-FIND("/",C12)-1))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1257,11 +1260,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="9" t="e">
-        <f>TRIM(MID(C12,FIND("/",C12)+1,FIND("MWp",C12)-FIND("/",C12)-1))</f>
-        <v>#VALUE!</v>
+        <v>114</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f>UPPER($C$13)</f>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1270,10 +1273,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>UPPER($C$13)</f>
+        <f>UPPER($C$3)</f>
         <v/>
       </c>
     </row>
@@ -1283,11 +1286,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f>UPPER($C$3)</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="C45" s="9" t="e">
+        <f>VLOOKUP($C$3,State!$B$4:$C$39,2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1296,11 +1299,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="9" t="e">
-        <f>VLOOKUP($C$3,State!$B$4:$C$39,2,0)</f>
-        <v>#N/A</v>
+        <v>115</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f>UPPER($C$14)</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1309,12 +1312,9 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f>UPPER($C$14)</f>
-        <v/>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
@@ -1345,11 +1345,6 @@
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
